--- a/movie_dataframe.xlsx
+++ b/movie_dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="473">
   <si>
     <t>movie_name</t>
   </si>
@@ -55,6 +55,15 @@
     <t>actor</t>
   </si>
   <si>
+    <t>youtube_comment_count</t>
+  </si>
+  <si>
+    <t>youtube_view_sum</t>
+  </si>
+  <si>
+    <t>youtube_view_mean</t>
+  </si>
+  <si>
     <t>극한직업</t>
   </si>
   <si>
@@ -256,6 +265,9 @@
     <t>결백</t>
   </si>
   <si>
+    <t>1917</t>
+  </si>
+  <si>
     <t>작은 아씨들</t>
   </si>
   <si>
@@ -283,6 +295,9 @@
     <t>스타워즈: 라이즈 오브 스카이워커</t>
   </si>
   <si>
+    <t>스파이 지니어스</t>
+  </si>
+  <si>
     <t>이웃사촌</t>
   </si>
   <si>
@@ -394,6 +409,9 @@
     <t>소니픽쳐스엔터테인먼트코리아주식회사극장배급지점,(주)키다리이엔티</t>
   </si>
   <si>
+    <t>(주)스마일이엔티</t>
+  </si>
+  <si>
     <t>(주)누리픽쳐스</t>
   </si>
   <si>
@@ -613,6 +631,9 @@
     <t>20183813</t>
   </si>
   <si>
+    <t>20192399</t>
+  </si>
+  <si>
     <t>20192240</t>
   </si>
   <si>
@@ -640,6 +661,9 @@
     <t>20195462</t>
   </si>
   <si>
+    <t>20192300</t>
+  </si>
+  <si>
     <t>20181983</t>
   </si>
   <si>
@@ -790,6 +814,9 @@
     <t>['사극']</t>
   </si>
   <si>
+    <t>['드라마', '전쟁']</t>
+  </si>
+  <si>
     <t>['드라마', '멜로/로맨스']</t>
   </si>
   <si>
@@ -802,6 +829,9 @@
     <t>['액션', '어드벤처', '판타지', 'SF']</t>
   </si>
   <si>
+    <t>['애니메이션', '액션', '코미디', '가족', 'SF']</t>
+  </si>
+  <si>
     <t>['애니메이션', '어드벤처', '판타지']</t>
   </si>
   <si>
@@ -1030,6 +1060,9 @@
     <t>110분 39초</t>
   </si>
   <si>
+    <t>119분 19초</t>
+  </si>
+  <si>
     <t>134분 42초</t>
   </si>
   <si>
@@ -1057,6 +1090,9 @@
     <t>141분 41초</t>
   </si>
   <si>
+    <t>101분 44초</t>
+  </si>
+  <si>
     <t>130분 2초</t>
   </si>
   <si>
@@ -1207,7 +1243,7 @@
     <t>['공효진', '류준열', '조정석', '유연수']</t>
   </si>
   <si>
-    <t>['배성우(중수', '성동일', '장영남(명주', '김혜준(선우', '조이현', '김강훈', '이장원']</t>
+    <t>['배성우', '성동일', '장영남', '김혜준', '조이현', '김강훈', '이장원']</t>
   </si>
   <si>
     <t>['존 C. 라일리', '사라 실버맨', '맨디 무어', '크리스틴 벨']</t>
@@ -1318,6 +1354,9 @@
     <t>['신혜선', '배종옥', '허준호']</t>
   </si>
   <si>
+    <t>['조지 맥케이', '딘-찰스 채프먼', '콜린 퍼스', '베네딕트 컴버배치', '마크 스트롱', '앤드류 스캇', '리처드 매든', '애드리안 스카보로프']</t>
+  </si>
+  <si>
     <t>['시얼샤 로넌', '엠마 왓슨', '플로렌스 퓨', '엘리자 스캔런', '로라 던', '티모시 샬라메', '메릴 스트립']</t>
   </si>
   <si>
@@ -1343,6 +1382,9 @@
   </si>
   <si>
     <t>['데이지 리들리', '아담 드라이버', '오스카 아이삭', '존 보예가']</t>
+  </si>
+  <si>
+    <t>['윌 스미스', '톰 홀랜드']</t>
   </si>
   <si>
     <t>['정우', '오달수', '김희원', '김병철', '조현철', '이유비']</t>
@@ -1752,13 +1794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,13 +1840,22 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>43488</v>
@@ -1816,39 +1867,48 @@
         <v>16265618</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="M2" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O2">
+        <v>9518</v>
+      </c>
+      <c r="P2">
+        <v>6169458</v>
+      </c>
+      <c r="Q2">
+        <v>616945.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>43579</v>
@@ -1860,39 +1920,48 @@
         <v>13934592</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M3" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>380</v>
+      </c>
+      <c r="O3">
+        <v>26299</v>
+      </c>
+      <c r="P3">
+        <v>30475747</v>
+      </c>
+      <c r="Q3">
+        <v>3047574.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>43790</v>
@@ -1904,39 +1973,48 @@
         <v>27495584</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K4" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L4" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M4" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>381</v>
+      </c>
+      <c r="O4">
+        <v>20661</v>
+      </c>
+      <c r="P4">
+        <v>98141742</v>
+      </c>
+      <c r="Q4">
+        <v>9814174.199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>43608</v>
@@ -1948,39 +2026,48 @@
         <v>25447554</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L5" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M5" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>382</v>
+      </c>
+      <c r="O5">
+        <v>6934</v>
+      </c>
+      <c r="P5">
+        <v>48941252</v>
+      </c>
+      <c r="Q5">
+        <v>4894125.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>43615</v>
@@ -1992,39 +2079,48 @@
         <v>20626290</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K6" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L6" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M6" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>383</v>
+      </c>
+      <c r="O6">
+        <v>10215</v>
+      </c>
+      <c r="P6">
+        <v>19744174</v>
+      </c>
+      <c r="Q6">
+        <v>1974417.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>43677</v>
@@ -2036,39 +2132,48 @@
         <v>9426011</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O7">
+        <v>2198</v>
+      </c>
+      <c r="P7">
+        <v>4084363</v>
+      </c>
+      <c r="Q7">
+        <v>408436.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>43648</v>
@@ -2080,39 +2185,48 @@
         <v>8021145</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K8" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L8" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M8" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>385</v>
+      </c>
+      <c r="O8">
+        <v>7007</v>
+      </c>
+      <c r="P8">
+        <v>6476941</v>
+      </c>
+      <c r="Q8">
+        <v>647694.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>43818</v>
@@ -2124,39 +2238,48 @@
         <v>16505818</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L9" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="M9" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>386</v>
+      </c>
+      <c r="O9">
+        <v>13381</v>
+      </c>
+      <c r="P9">
+        <v>6747189</v>
+      </c>
+      <c r="Q9">
+        <v>674718.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>43530</v>
@@ -2168,39 +2291,48 @@
         <v>5802810</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K10" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L10" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M10" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>387</v>
+      </c>
+      <c r="O10">
+        <v>10251</v>
+      </c>
+      <c r="P10">
+        <v>8130267</v>
+      </c>
+      <c r="Q10">
+        <v>813026.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>43740</v>
@@ -2212,39 +2344,48 @@
         <v>5247874</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J11" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L11" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M11" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N11" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>388</v>
+      </c>
+      <c r="O11">
+        <v>10806</v>
+      </c>
+      <c r="P11">
+        <v>10304965</v>
+      </c>
+      <c r="Q11">
+        <v>1030496.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>43684</v>
@@ -2256,39 +2397,48 @@
         <v>4787538</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M12" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>389</v>
+      </c>
+      <c r="O12">
+        <v>10006</v>
+      </c>
+      <c r="P12">
+        <v>1462166</v>
+      </c>
+      <c r="Q12">
+        <v>146216.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
         <v>43663</v>
@@ -2300,39 +2450,48 @@
         <v>4743264</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="J13" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K13" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L13" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M13" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>390</v>
+      </c>
+      <c r="O13">
+        <v>8290</v>
+      </c>
+      <c r="P13">
+        <v>9310412</v>
+      </c>
+      <c r="Q13">
+        <v>931041.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>43719</v>
@@ -2344,39 +2503,48 @@
         <v>4573902</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L14" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="M14" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>391</v>
+      </c>
+      <c r="O14">
+        <v>1397</v>
+      </c>
+      <c r="P14">
+        <v>4104395</v>
+      </c>
+      <c r="Q14">
+        <v>410439.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>43761</v>
@@ -2388,39 +2556,48 @@
         <v>3678156</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J15" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K15" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L15" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M15" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>392</v>
+      </c>
+      <c r="O15">
+        <v>12706</v>
+      </c>
+      <c r="P15">
+        <v>3722539</v>
+      </c>
+      <c r="Q15">
+        <v>372253.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>43691</v>
@@ -2432,39 +2609,48 @@
         <v>3657536</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J16" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K16" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L16" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="M16" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N16" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>393</v>
+      </c>
+      <c r="O16">
+        <v>2299</v>
+      </c>
+      <c r="P16">
+        <v>2095925</v>
+      </c>
+      <c r="Q16">
+        <v>209592.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>43636</v>
@@ -2476,39 +2662,48 @@
         <v>3400034</v>
       </c>
       <c r="F17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J17" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K17" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L17" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M17" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>394</v>
+      </c>
+      <c r="O17">
+        <v>5412</v>
+      </c>
+      <c r="P17">
+        <v>7149811</v>
+      </c>
+      <c r="Q17">
+        <v>714981.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>43544</v>
@@ -2520,39 +2715,48 @@
         <v>3389125</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="J18" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K18" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L18" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M18" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N18" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>395</v>
+      </c>
+      <c r="O18">
+        <v>602</v>
+      </c>
+      <c r="P18">
+        <v>1261501</v>
+      </c>
+      <c r="Q18">
+        <v>126150.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>43600</v>
@@ -2564,39 +2768,48 @@
         <v>3364712</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J19" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K19" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L19" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M19" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="N19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>396</v>
+      </c>
+      <c r="O19">
+        <v>1494</v>
+      </c>
+      <c r="P19">
+        <v>710687</v>
+      </c>
+      <c r="Q19">
+        <v>71068.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>43740</v>
@@ -2608,39 +2821,48 @@
         <v>2924563</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I20" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J20" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K20" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L20" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M20" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>397</v>
+      </c>
+      <c r="O20">
+        <v>283</v>
+      </c>
+      <c r="P20">
+        <v>396635</v>
+      </c>
+      <c r="Q20">
+        <v>39663.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>43474</v>
@@ -2652,39 +2874,48 @@
         <v>2812877</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K21" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L21" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M21" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N21" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>398</v>
+      </c>
+      <c r="O21">
+        <v>721</v>
+      </c>
+      <c r="P21">
+        <v>243075</v>
+      </c>
+      <c r="Q21">
+        <v>24307.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2">
         <v>43509</v>
@@ -2696,39 +2927,48 @@
         <v>2534748</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L22" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M22" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>399</v>
+      </c>
+      <c r="O22">
+        <v>777</v>
+      </c>
+      <c r="P22">
+        <v>982624</v>
+      </c>
+      <c r="Q22">
+        <v>98262.39999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2">
         <v>43817</v>
@@ -2740,39 +2980,48 @@
         <v>6636958</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K23" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L23" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M23" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>400</v>
+      </c>
+      <c r="O23">
+        <v>852</v>
+      </c>
+      <c r="P23">
+        <v>1021174</v>
+      </c>
+      <c r="Q23">
+        <v>102117.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
         <v>43782</v>
@@ -2784,39 +3033,48 @@
         <v>2478964</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K24" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L24" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M24" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>401</v>
+      </c>
+      <c r="O24">
+        <v>1759</v>
+      </c>
+      <c r="P24">
+        <v>825767</v>
+      </c>
+      <c r="Q24">
+        <v>82576.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" s="2">
         <v>43768</v>
@@ -2828,39 +3086,48 @@
         <v>2409062</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M25" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N25" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>402</v>
+      </c>
+      <c r="O25">
+        <v>6796</v>
+      </c>
+      <c r="P25">
+        <v>3831884</v>
+      </c>
+      <c r="Q25">
+        <v>383188.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2">
         <v>43516</v>
@@ -2872,39 +3139,48 @@
         <v>2398519</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="M26" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>403</v>
+      </c>
+      <c r="O26">
+        <v>3087</v>
+      </c>
+      <c r="P26">
+        <v>4097225</v>
+      </c>
+      <c r="Q26">
+        <v>409722.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
         <v>43719</v>
@@ -2916,39 +3192,48 @@
         <v>2229239</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M27" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="N27" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>404</v>
+      </c>
+      <c r="O27">
+        <v>5392</v>
+      </c>
+      <c r="P27">
+        <v>3380806</v>
+      </c>
+      <c r="Q27">
+        <v>338080.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2">
         <v>43776</v>
@@ -2960,39 +3245,48 @@
         <v>2157437</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="M28" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N28" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>405</v>
+      </c>
+      <c r="O28">
+        <v>4056</v>
+      </c>
+      <c r="P28">
+        <v>3519754</v>
+      </c>
+      <c r="Q28">
+        <v>351975.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2">
         <v>43501</v>
@@ -3004,39 +3298,48 @@
         <v>1952063</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I29" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N29" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>406</v>
+      </c>
+      <c r="O29">
+        <v>8272</v>
+      </c>
+      <c r="P29">
+        <v>10869140</v>
+      </c>
+      <c r="Q29">
+        <v>1086914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2">
         <v>43474</v>
@@ -3048,39 +3351,48 @@
         <v>1902828</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N30" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>407</v>
+      </c>
+      <c r="O30">
+        <v>969</v>
+      </c>
+      <c r="P30">
+        <v>354977</v>
+      </c>
+      <c r="Q30">
+        <v>35497.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2">
         <v>43495</v>
@@ -3092,39 +3404,48 @@
         <v>1826912</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="M31" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N31" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>408</v>
+      </c>
+      <c r="O31">
+        <v>579</v>
+      </c>
+      <c r="P31">
+        <v>484996</v>
+      </c>
+      <c r="Q31">
+        <v>48499.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
         <v>43698</v>
@@ -3136,39 +3457,48 @@
         <v>1804112</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="I32" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>409</v>
+      </c>
+      <c r="O32">
+        <v>1204</v>
+      </c>
+      <c r="P32">
+        <v>1698490</v>
+      </c>
+      <c r="Q32">
+        <v>169849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2">
         <v>43468</v>
@@ -3180,39 +3510,48 @@
         <v>1754375</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N33" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>410</v>
+      </c>
+      <c r="O33">
+        <v>2479</v>
+      </c>
+      <c r="P33">
+        <v>2111885</v>
+      </c>
+      <c r="Q33">
+        <v>211188.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2">
         <v>43594</v>
@@ -3224,39 +3563,48 @@
         <v>1629528</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I34" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N34" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>411</v>
+      </c>
+      <c r="O34">
+        <v>6916</v>
+      </c>
+      <c r="P34">
+        <v>1708096</v>
+      </c>
+      <c r="Q34">
+        <v>170809.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2">
         <v>43677</v>
@@ -3268,39 +3616,48 @@
         <v>1611163</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J35" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N35" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>412</v>
+      </c>
+      <c r="O35">
+        <v>1899</v>
+      </c>
+      <c r="P35">
+        <v>761835</v>
+      </c>
+      <c r="Q35">
+        <v>76183.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2">
         <v>43453</v>
@@ -3312,39 +3669,48 @@
         <v>1546297</v>
       </c>
       <c r="F36" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H36" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N36" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>413</v>
+      </c>
+      <c r="O36">
+        <v>11746</v>
+      </c>
+      <c r="P36">
+        <v>9778187</v>
+      </c>
+      <c r="Q36">
+        <v>977818.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2">
         <v>43495</v>
@@ -3356,39 +3722,48 @@
         <v>1507922</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J37" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N37" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>414</v>
+      </c>
+      <c r="O37">
+        <v>1251</v>
+      </c>
+      <c r="P37">
+        <v>2839824</v>
+      </c>
+      <c r="Q37">
+        <v>283982.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2">
         <v>43586</v>
@@ -3400,39 +3775,48 @@
         <v>1478156</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K38" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N38" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>415</v>
+      </c>
+      <c r="O38">
+        <v>116</v>
+      </c>
+      <c r="P38">
+        <v>234167</v>
+      </c>
+      <c r="Q38">
+        <v>23416.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
         <v>43551</v>
@@ -3444,39 +3828,48 @@
         <v>1475087</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>416</v>
+      </c>
+      <c r="O39">
+        <v>1068</v>
+      </c>
+      <c r="P39">
+        <v>2868943</v>
+      </c>
+      <c r="Q39">
+        <v>286894.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2">
         <v>43755</v>
@@ -3488,39 +3881,48 @@
         <v>1444952</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N40" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>417</v>
+      </c>
+      <c r="O40">
+        <v>2897</v>
+      </c>
+      <c r="P40">
+        <v>3616375</v>
+      </c>
+      <c r="Q40">
+        <v>361637.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2">
         <v>43705</v>
@@ -3532,39 +3934,48 @@
         <v>1245532</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H41" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I41" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="J41" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K41" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>418</v>
+      </c>
+      <c r="O41">
+        <v>713</v>
+      </c>
+      <c r="P41">
+        <v>1849716</v>
+      </c>
+      <c r="Q41">
+        <v>184971.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2">
         <v>43740</v>
@@ -3576,39 +3987,48 @@
         <v>1240022</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I42" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="J42" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L42" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N42" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>419</v>
+      </c>
+      <c r="O42">
+        <v>360</v>
+      </c>
+      <c r="P42">
+        <v>185158</v>
+      </c>
+      <c r="Q42">
+        <v>18515.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2">
         <v>43803</v>
@@ -3620,39 +4040,48 @@
         <v>1208407</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I43" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J43" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K43" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="M43" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N43" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>420</v>
+      </c>
+      <c r="O43">
+        <v>845</v>
+      </c>
+      <c r="P43">
+        <v>358050</v>
+      </c>
+      <c r="Q43">
+        <v>35805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2">
         <v>43558</v>
@@ -3664,39 +4093,48 @@
         <v>1197565</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I44" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J44" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K44" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N44" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>421</v>
+      </c>
+      <c r="O44">
+        <v>808</v>
+      </c>
+      <c r="P44">
+        <v>1325491</v>
+      </c>
+      <c r="Q44">
+        <v>132549.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2">
         <v>43719</v>
@@ -3708,39 +4146,48 @@
         <v>1181960</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I45" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="J45" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K45" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L45" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>422</v>
+      </c>
+      <c r="O45">
+        <v>609</v>
+      </c>
+      <c r="P45">
+        <v>214374</v>
+      </c>
+      <c r="Q45">
+        <v>21437.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2">
         <v>43523</v>
@@ -3752,39 +4199,48 @@
         <v>1157949</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I46" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J46" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="K46" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N46" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>423</v>
+      </c>
+      <c r="O46">
+        <v>1216</v>
+      </c>
+      <c r="P46">
+        <v>669208</v>
+      </c>
+      <c r="Q46">
+        <v>66920.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2">
         <v>43733</v>
@@ -3796,39 +4252,48 @@
         <v>1140876</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G47" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I47" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J47" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K47" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L47" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="M47" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N47" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>424</v>
+      </c>
+      <c r="O47">
+        <v>1453</v>
+      </c>
+      <c r="P47">
+        <v>517644</v>
+      </c>
+      <c r="Q47">
+        <v>51764.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2">
         <v>43677</v>
@@ -3840,39 +4305,48 @@
         <v>1114949</v>
       </c>
       <c r="F48" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="I48" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J48" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K48" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L48" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>425</v>
+      </c>
+      <c r="O48">
+        <v>207</v>
+      </c>
+      <c r="P48">
+        <v>1942573</v>
+      </c>
+      <c r="Q48">
+        <v>194257.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2">
         <v>43635</v>
@@ -3884,39 +4358,48 @@
         <v>1094404</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H49" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I49" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J49" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K49" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L49" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N49" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>426</v>
+      </c>
+      <c r="O49">
+        <v>1046</v>
+      </c>
+      <c r="P49">
+        <v>684833</v>
+      </c>
+      <c r="Q49">
+        <v>68483.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2">
         <v>43810</v>
@@ -3928,39 +4411,48 @@
         <v>1054963</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J50" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L50" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N50" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>427</v>
+      </c>
+      <c r="O50">
+        <v>272</v>
+      </c>
+      <c r="P50">
+        <v>866380</v>
+      </c>
+      <c r="Q50">
+        <v>86638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2">
         <v>43642</v>
@@ -3972,39 +4464,48 @@
         <v>1004365</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G51" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I51" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="J51" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K51" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L51" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M51" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="N51" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>428</v>
+      </c>
+      <c r="O51">
+        <v>2188</v>
+      </c>
+      <c r="P51">
+        <v>930606</v>
+      </c>
+      <c r="Q51">
+        <v>93060.60000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2">
         <v>43852</v>
@@ -4016,39 +4517,48 @@
         <v>4750345</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I52" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J52" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K52" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>429</v>
+      </c>
+      <c r="O52">
+        <v>2895</v>
+      </c>
+      <c r="P52">
+        <v>5787383</v>
+      </c>
+      <c r="Q52">
+        <v>578738.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2">
         <v>44048</v>
@@ -4060,39 +4570,48 @@
         <v>4357803</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H53" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I53" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J53" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K53" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L53" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M53" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N53" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>430</v>
+      </c>
+      <c r="O53">
+        <v>5709</v>
+      </c>
+      <c r="P53">
+        <v>4788715</v>
+      </c>
+      <c r="Q53">
+        <v>478871.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2">
         <v>44027</v>
@@ -4104,39 +4623,48 @@
         <v>3812250</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="I54" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J54" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K54" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="M54" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N54" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>431</v>
+      </c>
+      <c r="O54">
+        <v>17674</v>
+      </c>
+      <c r="P54">
+        <v>5815092</v>
+      </c>
+      <c r="Q54">
+        <v>581509.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2">
         <v>43852</v>
@@ -4148,39 +4676,48 @@
         <v>2406232</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H55" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I55" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J55" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K55" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L55" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M55" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N55" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>432</v>
+      </c>
+      <c r="O55">
+        <v>929</v>
+      </c>
+      <c r="P55">
+        <v>509315</v>
+      </c>
+      <c r="Q55">
+        <v>50931.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2">
         <v>44069</v>
@@ -4192,39 +4729,48 @@
         <v>1992214</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G56" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H56" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I56" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="J56" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K56" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L56" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M56" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N56" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>433</v>
+      </c>
+      <c r="O56">
+        <v>6537</v>
+      </c>
+      <c r="P56">
+        <v>4943375</v>
+      </c>
+      <c r="Q56">
+        <v>494337.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2">
         <v>44006</v>
@@ -4236,39 +4782,48 @@
         <v>1903992</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H57" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I57" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J57" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K57" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L57" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M57" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N57" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>434</v>
+      </c>
+      <c r="O57">
+        <v>4845</v>
+      </c>
+      <c r="P57">
+        <v>2955998</v>
+      </c>
+      <c r="Q57">
+        <v>295599.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2">
         <v>44041</v>
@@ -4280,39 +4835,48 @@
         <v>1791533</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="I58" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="J58" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K58" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L58" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N58" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>435</v>
+      </c>
+      <c r="O58">
+        <v>6156</v>
+      </c>
+      <c r="P58">
+        <v>2405868</v>
+      </c>
+      <c r="Q58">
+        <v>240586.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
         <v>44103</v>
@@ -4324,39 +4888,48 @@
         <v>1719521</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G59" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H59" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I59" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J59" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K59" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L59" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="M59" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N59" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>436</v>
+      </c>
+      <c r="O59">
+        <v>897</v>
+      </c>
+      <c r="P59">
+        <v>522067</v>
+      </c>
+      <c r="Q59">
+        <v>52206.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
         <v>43838</v>
@@ -4368,39 +4941,48 @@
         <v>1607082</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H60" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I60" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K60" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L60" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N60" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>437</v>
+      </c>
+      <c r="O60">
+        <v>930</v>
+      </c>
+      <c r="P60">
+        <v>552122</v>
+      </c>
+      <c r="Q60">
+        <v>55212.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2">
         <v>44125</v>
@@ -4412,39 +4994,48 @@
         <v>1571286</v>
       </c>
       <c r="F61" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I61" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J61" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K61" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L61" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M61" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N61" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>438</v>
+      </c>
+      <c r="O61">
+        <v>3404</v>
+      </c>
+      <c r="P61">
+        <v>2406781</v>
+      </c>
+      <c r="Q61">
+        <v>240678.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2">
         <v>43873</v>
@@ -4456,39 +5047,48 @@
         <v>1538038</v>
       </c>
       <c r="F62" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="I62" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J62" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K62" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L62" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M62" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>439</v>
+      </c>
+      <c r="O62">
+        <v>503</v>
+      </c>
+      <c r="P62">
+        <v>281953</v>
+      </c>
+      <c r="Q62">
+        <v>28195.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2">
         <v>44139</v>
@@ -4500,39 +5100,48 @@
         <v>1523514</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G63" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="I63" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="J63" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K63" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L63" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N63" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>440</v>
+      </c>
+      <c r="O63">
+        <v>4159</v>
+      </c>
+      <c r="P63">
+        <v>3494663</v>
+      </c>
+      <c r="Q63">
+        <v>349466.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2">
         <v>43866</v>
@@ -4544,39 +5153,48 @@
         <v>1270835</v>
       </c>
       <c r="F64" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="I64" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J64" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K64" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L64" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M64" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N64" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>441</v>
+      </c>
+      <c r="O64">
+        <v>995</v>
+      </c>
+      <c r="P64">
+        <v>364742</v>
+      </c>
+      <c r="Q64">
+        <v>36474.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2">
         <v>44055</v>
@@ -4588,39 +5206,48 @@
         <v>1228968</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I65" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J65" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K65" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L65" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M65" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N65" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>442</v>
+      </c>
+      <c r="O65">
+        <v>1634</v>
+      </c>
+      <c r="P65">
+        <v>578481</v>
+      </c>
+      <c r="Q65">
+        <v>57848.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2">
         <v>43845</v>
@@ -4632,39 +5259,48 @@
         <v>1209689</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H66" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="I66" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J66" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K66" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L66" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M66" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N66" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>443</v>
+      </c>
+      <c r="O66">
+        <v>631</v>
+      </c>
+      <c r="P66">
+        <v>537360</v>
+      </c>
+      <c r="Q66">
+        <v>53736</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2">
         <v>43825</v>
@@ -4676,39 +5312,48 @@
         <v>1035024</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H67" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I67" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K67" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L67" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M67" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N67" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>444</v>
+      </c>
+      <c r="O67">
+        <v>2343</v>
+      </c>
+      <c r="P67">
+        <v>3752322</v>
+      </c>
+      <c r="Q67">
+        <v>375232.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2">
         <v>43992</v>
@@ -4720,1131 +5365,1471 @@
         <v>894025</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H68" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="I68" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="J68" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K68" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L68" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="M68" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N68" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>445</v>
+      </c>
+      <c r="O68">
+        <v>459</v>
+      </c>
+      <c r="P68">
+        <v>231242</v>
+      </c>
+      <c r="Q68">
+        <v>23124.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2">
-        <v>43873</v>
+        <v>43880</v>
       </c>
       <c r="D69">
-        <v>7283877330</v>
+        <v>7924722960</v>
       </c>
       <c r="E69">
-        <v>864782</v>
+        <v>877017</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G69" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H69" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I69" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="J69" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K69" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L69" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M69" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="N69" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>446</v>
+      </c>
+      <c r="O69">
+        <v>1321</v>
+      </c>
+      <c r="P69">
+        <v>787714</v>
+      </c>
+      <c r="Q69">
+        <v>78771.39999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2">
-        <v>43830</v>
+        <v>43873</v>
       </c>
       <c r="D70">
-        <v>7143163010</v>
+        <v>7283877330</v>
       </c>
       <c r="E70">
-        <v>824836</v>
+        <v>864782</v>
       </c>
       <c r="F70" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H70" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I70" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="J70" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K70" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L70" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M70" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="N70" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>447</v>
+      </c>
+      <c r="O70">
+        <v>1043</v>
+      </c>
+      <c r="P70">
+        <v>1097268</v>
+      </c>
+      <c r="Q70">
+        <v>109726.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2">
-        <v>43880</v>
+        <v>43830</v>
       </c>
       <c r="D71">
-        <v>5457014750</v>
+        <v>7143163010</v>
       </c>
       <c r="E71">
-        <v>628977</v>
+        <v>824836</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G71" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I71" t="s">
         <v>259</v>
       </c>
       <c r="J71" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K71" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L71" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M71" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="N71" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>448</v>
+      </c>
+      <c r="O71">
+        <v>1879</v>
+      </c>
+      <c r="P71">
+        <v>2788655</v>
+      </c>
+      <c r="Q71">
+        <v>278865.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2">
-        <v>43852</v>
+        <v>43880</v>
       </c>
       <c r="D72">
-        <v>5071671660</v>
+        <v>5457014750</v>
       </c>
       <c r="E72">
-        <v>603203</v>
+        <v>628977</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H72" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="I72" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="J72" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K72" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L72" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="N72" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>449</v>
+      </c>
+      <c r="O72">
+        <v>1209</v>
+      </c>
+      <c r="P72">
+        <v>2188076</v>
+      </c>
+      <c r="Q72">
+        <v>218807.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2">
-        <v>43887</v>
+        <v>43852</v>
       </c>
       <c r="D73">
-        <v>5015895060</v>
+        <v>5071671660</v>
       </c>
       <c r="E73">
-        <v>575043</v>
+        <v>603203</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="H73" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="I73" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J73" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K73" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L73" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M73" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="N73" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>450</v>
+      </c>
+      <c r="O73">
+        <v>658</v>
+      </c>
+      <c r="P73">
+        <v>290841</v>
+      </c>
+      <c r="Q73">
+        <v>29084.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2">
-        <v>43845</v>
+        <v>43887</v>
       </c>
       <c r="D74">
-        <v>4880576760</v>
+        <v>5015895060</v>
       </c>
       <c r="E74">
-        <v>547775</v>
+        <v>575043</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H74" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="I74" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="J74" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K74" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L74" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M74" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="N74" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>451</v>
+      </c>
+      <c r="O74">
+        <v>1249</v>
+      </c>
+      <c r="P74">
+        <v>524493</v>
+      </c>
+      <c r="Q74">
+        <v>52449.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2">
-        <v>44103</v>
+        <v>43845</v>
       </c>
       <c r="D75">
-        <v>4496603760</v>
+        <v>4880576760</v>
       </c>
       <c r="E75">
-        <v>537470</v>
+        <v>547775</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H75" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I75" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="J75" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K75" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L75" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M75" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="N75" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>452</v>
+      </c>
+      <c r="O75">
+        <v>412</v>
+      </c>
+      <c r="P75">
+        <v>624492</v>
+      </c>
+      <c r="Q75">
+        <v>62449.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2">
-        <v>43986</v>
+        <v>44103</v>
       </c>
       <c r="D76">
-        <v>4810611000</v>
+        <v>4496603760</v>
       </c>
       <c r="E76">
-        <v>532045</v>
+        <v>537470</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G76" t="s">
         <v>118</v>
       </c>
       <c r="H76" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I76" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J76" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K76" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L76" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M76" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N76" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>453</v>
+      </c>
+      <c r="O76">
+        <v>758</v>
+      </c>
+      <c r="P76">
+        <v>353518</v>
+      </c>
+      <c r="Q76">
+        <v>35351.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2">
-        <v>43838</v>
+        <v>43986</v>
       </c>
       <c r="D77">
-        <v>4704790210</v>
+        <v>4810611000</v>
       </c>
       <c r="E77">
-        <v>507265</v>
+        <v>532045</v>
       </c>
       <c r="F77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H77" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I77" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="J77" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K77" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L77" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M77" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N77" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>454</v>
+      </c>
+      <c r="O77">
+        <v>866</v>
+      </c>
+      <c r="P77">
+        <v>510719</v>
+      </c>
+      <c r="Q77">
+        <v>51071.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2">
-        <v>44160</v>
+        <v>43838</v>
       </c>
       <c r="D78">
-        <v>3647897960</v>
+        <v>4704790210</v>
       </c>
       <c r="E78">
-        <v>424764</v>
+        <v>507265</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G78" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H78" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="I78" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="J78" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K78" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L78" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M78" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N78" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>455</v>
+      </c>
+      <c r="O78">
+        <v>4501</v>
+      </c>
+      <c r="P78">
+        <v>1131353</v>
+      </c>
+      <c r="Q78">
+        <v>113135.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C79" s="2">
-        <v>43999</v>
+        <v>43852</v>
       </c>
       <c r="D79">
-        <v>3590809620</v>
+        <v>3699691180</v>
       </c>
       <c r="E79">
-        <v>418084</v>
+        <v>450932</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G79" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H79" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I79" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="J79" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K79" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L79" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M79" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="N79" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>456</v>
+      </c>
+      <c r="O79">
+        <v>63</v>
+      </c>
+      <c r="P79">
+        <v>417378</v>
+      </c>
+      <c r="Q79">
+        <v>41737.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2">
-        <v>44119</v>
+        <v>44160</v>
       </c>
       <c r="D80">
-        <v>3558905900</v>
+        <v>3647897960</v>
       </c>
       <c r="E80">
-        <v>403424</v>
+        <v>424764</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="H80" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I80" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="J80" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K80" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L80" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M80" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="N80" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>457</v>
+      </c>
+      <c r="O80">
+        <v>479</v>
+      </c>
+      <c r="P80">
+        <v>289643</v>
+      </c>
+      <c r="Q80">
+        <v>28964.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C81" s="2">
-        <v>43866</v>
+        <v>43999</v>
       </c>
       <c r="D81">
-        <v>3558359190</v>
+        <v>3590809620</v>
       </c>
       <c r="E81">
-        <v>402035</v>
+        <v>418084</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H81" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I81" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="J81" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K81" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L81" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M81" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="N81" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>458</v>
+      </c>
+      <c r="O81">
+        <v>200</v>
+      </c>
+      <c r="P81">
+        <v>980926</v>
+      </c>
+      <c r="Q81">
+        <v>98092.60000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2">
-        <v>44188</v>
+        <v>44119</v>
       </c>
       <c r="D82">
-        <v>3490431460</v>
+        <v>3558905900</v>
       </c>
       <c r="E82">
-        <v>390986</v>
+        <v>403424</v>
       </c>
       <c r="F82" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H82" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="I82" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J82" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K82" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L82" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M82" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N82" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>459</v>
+      </c>
+      <c r="O82">
+        <v>682</v>
+      </c>
+      <c r="P82">
+        <v>460442</v>
+      </c>
+      <c r="Q82">
+        <v>46044.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2">
-        <v>44076</v>
+        <v>43866</v>
       </c>
       <c r="D83">
-        <v>2802734600</v>
+        <v>3558359190</v>
       </c>
       <c r="E83">
-        <v>351730</v>
+        <v>402035</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G83" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H83" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="I83" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="J83" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K83" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L83" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M83" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N83" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>460</v>
+      </c>
+      <c r="O83">
+        <v>2292</v>
+      </c>
+      <c r="P83">
+        <v>2235635</v>
+      </c>
+      <c r="Q83">
+        <v>223563.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2">
-        <v>44103</v>
+        <v>44188</v>
       </c>
       <c r="D84">
-        <v>2777724520</v>
+        <v>3490431460</v>
       </c>
       <c r="E84">
-        <v>325869</v>
+        <v>390986</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H84" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I84" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="J84" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K84" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L84" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M84" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N84" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>461</v>
+      </c>
+      <c r="O84">
+        <v>4195</v>
+      </c>
+      <c r="P84">
+        <v>3762763</v>
+      </c>
+      <c r="Q84">
+        <v>376276.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2">
-        <v>43089</v>
+        <v>44076</v>
       </c>
       <c r="D85">
-        <v>1897251570</v>
+        <v>2802734600</v>
       </c>
       <c r="E85">
-        <v>306419</v>
+        <v>351730</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H85" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I85" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="J85" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K85" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L85" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M85" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N85" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>462</v>
+      </c>
+      <c r="O85">
+        <v>397</v>
+      </c>
+      <c r="P85">
+        <v>175489</v>
+      </c>
+      <c r="Q85">
+        <v>17548.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2">
-        <v>44091</v>
+        <v>44103</v>
       </c>
       <c r="D86">
-        <v>2079737620</v>
+        <v>2777724520</v>
       </c>
       <c r="E86">
-        <v>236247</v>
+        <v>325869</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H86" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I86" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="J86" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K86" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L86" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M86" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N86" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>463</v>
+      </c>
+      <c r="O86">
+        <v>345</v>
+      </c>
+      <c r="P86">
+        <v>643231</v>
+      </c>
+      <c r="Q86">
+        <v>64323.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2">
-        <v>44147</v>
+        <v>43089</v>
       </c>
       <c r="D87">
-        <v>2135396020</v>
+        <v>1897251570</v>
       </c>
       <c r="E87">
-        <v>233112</v>
+        <v>306419</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G87" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H87" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I87" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="J87" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K87" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L87" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M87" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N87" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>464</v>
+      </c>
+      <c r="O87">
+        <v>10374</v>
+      </c>
+      <c r="P87">
+        <v>48248281</v>
+      </c>
+      <c r="Q87">
+        <v>4824828.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C88" s="2">
-        <v>43818</v>
+        <v>44091</v>
       </c>
       <c r="D88">
-        <v>1757416340</v>
+        <v>2079737620</v>
       </c>
       <c r="E88">
-        <v>222234</v>
+        <v>236247</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G88" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H88" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I88" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="J88" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K88" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L88" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M88" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="N88" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>465</v>
+      </c>
+      <c r="O88">
+        <v>9686</v>
+      </c>
+      <c r="P88">
+        <v>4102717</v>
+      </c>
+      <c r="Q88">
+        <v>410271.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C89" s="2">
-        <v>43957</v>
+        <v>44147</v>
       </c>
       <c r="D89">
-        <v>1848297600</v>
+        <v>2135396020</v>
       </c>
       <c r="E89">
-        <v>217056</v>
+        <v>233112</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H89" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I89" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="J89" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K89" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L89" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M89" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="N89" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>466</v>
+      </c>
+      <c r="O89">
+        <v>298</v>
+      </c>
+      <c r="P89">
+        <v>134555</v>
+      </c>
+      <c r="Q89">
+        <v>13455.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2">
-        <v>44097</v>
+        <v>43818</v>
       </c>
       <c r="D90">
-        <v>1619781870</v>
+        <v>1757416340</v>
       </c>
       <c r="E90">
-        <v>190237</v>
+        <v>222234</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G90" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H90" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I90" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J90" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K90" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L90" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M90" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="N90" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>467</v>
+      </c>
+      <c r="O90">
+        <v>639</v>
+      </c>
+      <c r="P90">
+        <v>2804636</v>
+      </c>
+      <c r="Q90">
+        <v>280463.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2">
-        <v>44175</v>
+        <v>43957</v>
       </c>
       <c r="D91">
-        <v>1673427570</v>
+        <v>1848297600</v>
       </c>
       <c r="E91">
-        <v>186647</v>
+        <v>217056</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="H91" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="I91" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J91" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="K91" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L91" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M91" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="N91" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>468</v>
+      </c>
+      <c r="O91">
+        <v>207</v>
+      </c>
+      <c r="P91">
+        <v>3479761</v>
+      </c>
+      <c r="Q91">
+        <v>347976.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C92" s="2">
-        <v>44000</v>
+        <v>44097</v>
       </c>
       <c r="D92">
-        <v>1652522580</v>
+        <v>1619781870</v>
       </c>
       <c r="E92">
-        <v>185802</v>
+        <v>190237</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H92" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I92" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J92" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K92" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L92" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="M92" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="N92" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>469</v>
+      </c>
+      <c r="O92">
+        <v>531</v>
+      </c>
+      <c r="P92">
+        <v>1976717</v>
+      </c>
+      <c r="Q92">
+        <v>197671.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2">
+        <v>44175</v>
+      </c>
+      <c r="D93">
+        <v>1673427570</v>
+      </c>
+      <c r="E93">
+        <v>186647</v>
+      </c>
+      <c r="F93" t="s">
+        <v>110</v>
+      </c>
+      <c r="G93" t="s">
+        <v>117</v>
+      </c>
+      <c r="H93" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" t="s">
+        <v>257</v>
+      </c>
+      <c r="J93" t="s">
+        <v>278</v>
+      </c>
+      <c r="K93" t="s">
+        <v>281</v>
+      </c>
+      <c r="L93" t="s">
+        <v>372</v>
+      </c>
+      <c r="M93" t="s">
+        <v>375</v>
+      </c>
+      <c r="N93" t="s">
+        <v>470</v>
+      </c>
+      <c r="O93">
+        <v>1132</v>
+      </c>
+      <c r="P93">
+        <v>602745</v>
+      </c>
+      <c r="Q93">
+        <v>60274.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44000</v>
+      </c>
+      <c r="D94">
+        <v>1652522580</v>
+      </c>
+      <c r="E94">
+        <v>185802</v>
+      </c>
+      <c r="F94" t="s">
+        <v>110</v>
+      </c>
+      <c r="G94" t="s">
+        <v>123</v>
+      </c>
+      <c r="H94" t="s">
+        <v>230</v>
+      </c>
+      <c r="I94" t="s">
+        <v>264</v>
+      </c>
+      <c r="J94" t="s">
+        <v>278</v>
+      </c>
+      <c r="K94" t="s">
+        <v>281</v>
+      </c>
+      <c r="L94" t="s">
+        <v>373</v>
+      </c>
+      <c r="M94" t="s">
+        <v>375</v>
+      </c>
+      <c r="N94" t="s">
+        <v>471</v>
+      </c>
+      <c r="O94">
+        <v>780</v>
+      </c>
+      <c r="P94">
+        <v>479967</v>
+      </c>
+      <c r="Q94">
+        <v>47996.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" s="2">
         <v>44020</v>
       </c>
-      <c r="D93">
+      <c r="D95">
         <v>1544025340</v>
       </c>
-      <c r="E93">
+      <c r="E95">
         <v>182026</v>
       </c>
-      <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s">
-        <v>131</v>
-      </c>
-      <c r="H93" t="s">
-        <v>223</v>
-      </c>
-      <c r="I93" t="s">
-        <v>228</v>
-      </c>
-      <c r="J93" t="s">
-        <v>270</v>
-      </c>
-      <c r="K93" t="s">
-        <v>271</v>
-      </c>
-      <c r="L93" t="s">
-        <v>362</v>
-      </c>
-      <c r="M93" t="s">
-        <v>363</v>
-      </c>
-      <c r="N93" t="s">
-        <v>458</v>
+      <c r="F95" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
+        <v>137</v>
+      </c>
+      <c r="H95" t="s">
+        <v>231</v>
+      </c>
+      <c r="I95" t="s">
+        <v>236</v>
+      </c>
+      <c r="J95" t="s">
+        <v>280</v>
+      </c>
+      <c r="K95" t="s">
+        <v>281</v>
+      </c>
+      <c r="L95" t="s">
+        <v>374</v>
+      </c>
+      <c r="M95" t="s">
+        <v>375</v>
+      </c>
+      <c r="N95" t="s">
+        <v>472</v>
+      </c>
+      <c r="O95">
+        <v>142</v>
+      </c>
+      <c r="P95">
+        <v>79679</v>
+      </c>
+      <c r="Q95">
+        <v>7967.9</v>
       </c>
     </row>
   </sheetData>
